--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Omg-Lingo1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H2">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J2">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>1.965347</v>
       </c>
       <c r="O2">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P2">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q2">
-        <v>1.356558274445445</v>
+        <v>1.545847613544</v>
       </c>
       <c r="R2">
-        <v>12.209024470009</v>
+        <v>13.912628521896</v>
       </c>
       <c r="S2">
-        <v>0.08284162518312585</v>
+        <v>0.1061914176527605</v>
       </c>
       <c r="T2">
-        <v>0.08284162518312585</v>
+        <v>0.1061914176527605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.070715666666667</v>
+        <v>2.359656</v>
       </c>
       <c r="H3">
-        <v>6.212147000000001</v>
+        <v>7.078968</v>
       </c>
       <c r="I3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="J3">
-        <v>0.1040804066116837</v>
+        <v>0.1135804410355361</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N3">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O3">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P3">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q3">
-        <v>0.3477918814648889</v>
+        <v>0.107563345656</v>
       </c>
       <c r="R3">
-        <v>3.130126933184</v>
+        <v>0.9680701109040001</v>
       </c>
       <c r="S3">
-        <v>0.0212387814285579</v>
+        <v>0.007389023382775641</v>
       </c>
       <c r="T3">
-        <v>0.0212387814285579</v>
+        <v>0.007389023382775639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>4.755688</v>
       </c>
       <c r="I4">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J4">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,10 +691,10 @@
         <v>1.965347</v>
       </c>
       <c r="O4">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P4">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q4">
         <v>1.038508571526222</v>
@@ -703,10 +703,10 @@
         <v>9.346577143736001</v>
       </c>
       <c r="S4">
-        <v>0.06341912430338326</v>
+        <v>0.07133995387946679</v>
       </c>
       <c r="T4">
-        <v>0.06341912430338326</v>
+        <v>0.07133995387946679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>4.755688</v>
       </c>
       <c r="I5">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="J5">
-        <v>0.07967840116441305</v>
+        <v>0.07630393871923234</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N5">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O5">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P5">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q5">
-        <v>0.2662508915484444</v>
+        <v>0.07226162234044445</v>
       </c>
       <c r="R5">
-        <v>2.396258023936</v>
+        <v>0.6503546010640001</v>
       </c>
       <c r="S5">
-        <v>0.0162592768610298</v>
+        <v>0.004963984839765559</v>
       </c>
       <c r="T5">
-        <v>0.0162592768610298</v>
+        <v>0.004963984839765559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H6">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I6">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J6">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -815,22 +815,22 @@
         <v>1.965347</v>
       </c>
       <c r="O6">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P6">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q6">
-        <v>1.479244624176667</v>
+        <v>1.977298493478889</v>
       </c>
       <c r="R6">
-        <v>13.31320161759</v>
+        <v>17.79568644131</v>
       </c>
       <c r="S6">
-        <v>0.09033377409480794</v>
+        <v>0.1358297728091128</v>
       </c>
       <c r="T6">
-        <v>0.09033377409480796</v>
+        <v>0.1358297728091128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.25799</v>
+        <v>3.018243333333333</v>
       </c>
       <c r="H7">
-        <v>6.77397</v>
+        <v>9.054729999999999</v>
       </c>
       <c r="I7">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="J7">
-        <v>0.1134933786942497</v>
+        <v>0.1452810956141771</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N7">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O7">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P7">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q7">
-        <v>0.3792459790933333</v>
+        <v>0.1375846101877778</v>
       </c>
       <c r="R7">
-        <v>3.41321381184</v>
+        <v>1.23826149169</v>
       </c>
       <c r="S7">
-        <v>0.02315960459944176</v>
+        <v>0.009451322805064251</v>
       </c>
       <c r="T7">
-        <v>0.02315960459944177</v>
+        <v>0.009451322805064249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H8">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I8">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J8">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -939,22 +939,22 @@
         <v>1.965347</v>
       </c>
       <c r="O8">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P8">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q8">
-        <v>2.015642195077</v>
+        <v>1.135072402421</v>
       </c>
       <c r="R8">
-        <v>18.140779755693</v>
+        <v>10.215651621789</v>
       </c>
       <c r="S8">
-        <v>0.1230902338464761</v>
+        <v>0.07797336975232184</v>
       </c>
       <c r="T8">
-        <v>0.1230902338464761</v>
+        <v>0.07797336975232184</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.076773</v>
+        <v>1.732629</v>
       </c>
       <c r="H9">
-        <v>9.230319</v>
+        <v>5.197887</v>
       </c>
       <c r="I9">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="J9">
-        <v>0.1546478785314562</v>
+        <v>0.08339892169492499</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N9">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O9">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P9">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q9">
-        <v>0.516766588352</v>
+        <v>0.07898073787900001</v>
       </c>
       <c r="R9">
-        <v>4.650899295168</v>
+        <v>0.710826640911</v>
       </c>
       <c r="S9">
-        <v>0.0315576446849801</v>
+        <v>0.005425551942603149</v>
       </c>
       <c r="T9">
-        <v>0.03155764468498011</v>
+        <v>0.005425551942603148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H10">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I10">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J10">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1063,22 +1063,22 @@
         <v>1.965347</v>
       </c>
       <c r="O10">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P10">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q10">
-        <v>4.790987307657001</v>
+        <v>6.282326022156</v>
       </c>
       <c r="R10">
-        <v>43.118885768913</v>
+        <v>56.540934199404</v>
       </c>
       <c r="S10">
-        <v>0.2925736271523483</v>
+        <v>0.4315620120667117</v>
       </c>
       <c r="T10">
-        <v>0.2925736271523483</v>
+        <v>0.4315620120667117</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.313193000000001</v>
+        <v>9.589644</v>
       </c>
       <c r="H11">
-        <v>21.939579</v>
+        <v>28.768932</v>
       </c>
       <c r="I11">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="J11">
-        <v>0.3675831082569614</v>
+        <v>0.4615910094072114</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N11">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O11">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P11">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q11">
-        <v>1.228304394432</v>
+        <v>0.437137528644</v>
       </c>
       <c r="R11">
-        <v>11.054739549888</v>
+        <v>3.934237757796</v>
       </c>
       <c r="S11">
-        <v>0.0750094811046131</v>
+        <v>0.03002899734049969</v>
       </c>
       <c r="T11">
-        <v>0.0750094811046131</v>
+        <v>0.03002899734049968</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H12">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I12">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J12">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>1.965347</v>
       </c>
       <c r="O12">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="P12">
-        <v>0.7959387158449697</v>
+        <v>0.9349445792302935</v>
       </c>
       <c r="Q12">
-        <v>2.352811667099778</v>
+        <v>1.631103711288333</v>
       </c>
       <c r="R12">
-        <v>21.175305003898</v>
+        <v>14.679933401595</v>
       </c>
       <c r="S12">
-        <v>0.1436803312648282</v>
+        <v>0.1120480530699199</v>
       </c>
       <c r="T12">
-        <v>0.1436803312648282</v>
+        <v>0.1120480530699199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.591444666666666</v>
+        <v>2.489795</v>
       </c>
       <c r="H13">
-        <v>10.774334</v>
+        <v>7.469385</v>
       </c>
       <c r="I13">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="J13">
-        <v>0.180516826741236</v>
+        <v>0.1198445935289181</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1679573333333333</v>
+        <v>0.04558433333333334</v>
       </c>
       <c r="N13">
-        <v>0.503872</v>
+        <v>0.136753</v>
       </c>
       <c r="O13">
-        <v>0.2040612841550304</v>
+        <v>0.0650554207697065</v>
       </c>
       <c r="P13">
-        <v>0.2040612841550304</v>
+        <v>0.06505542076970648</v>
       </c>
       <c r="Q13">
-        <v>0.6032094690275555</v>
+        <v>0.1134956452116667</v>
       </c>
       <c r="R13">
-        <v>5.428885221248</v>
+        <v>1.021460806905</v>
       </c>
       <c r="S13">
-        <v>0.03683649547640774</v>
+        <v>0.007796540458998209</v>
       </c>
       <c r="T13">
-        <v>0.03683649547640775</v>
+        <v>0.007796540458998207</v>
       </c>
     </row>
   </sheetData>
